--- a/excel/!!!!!!!!!Диплом 2 ст МУЛЬТ-ХАКАТОН  ДОДЕЛАТЬ.xlsx
+++ b/excel/!!!!!!!!!Диплом 2 ст МУЛЬТ-ХАКАТОН  ДОДЕЛАТЬ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,78 +396,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
